--- a/tables/Вокзал Ростов-Ярославский.xlsx
+++ b/tables/Вокзал Ростов-Ярославский.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -508,12 +508,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -604,12 +604,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -700,12 +700,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -828,12 +828,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
